--- a/02table/TableS4_anthocyanin_ligin_bx_in_M19.xlsx
+++ b/02table/TableS4_anthocyanin_ligin_bx_in_M19.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B65C3F-AB8F-AD42-9D86-37AFEC2B2D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C93E38-9A9B-1B4F-938B-1329D4B92B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="7840" windowWidth="31620" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="74840" yWindow="-440" windowWidth="30240" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,12 +442,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -743,7 +742,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C31" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -929,268 +928,268 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1250,72 +1249,72 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>84</v>
       </c>
     </row>
